--- a/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
+++ b/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,8 +189,14 @@
       <name val="Times"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +209,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -649,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,64 +774,73 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,22 +867,43 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,7 +1195,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -1161,31 +1221,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="52" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="58" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1244,16 +1304,16 @@
       <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="56"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1265,13 +1325,13 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="54" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1283,13 +1343,13 @@
       <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="54" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1304,9 +1364,9 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1316,9 +1376,9 @@
       <c r="F4" s="11">
         <v>1.5</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="35"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1328,9 +1388,9 @@
       <c r="L4" s="11">
         <v>1.5</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="35"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1345,11 +1405,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1361,11 +1421,11 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1377,28 +1437,28 @@
       <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="10">
-        <v>2</v>
-      </c>
-      <c r="R5" s="11">
+      <c r="Q5" s="68">
+        <v>2</v>
+      </c>
+      <c r="R5" s="69">
         <v>1.3</v>
       </c>
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="20" t="s">
         <v>26</v>
       </c>
@@ -1408,9 +1468,9 @@
       <c r="F6" s="11">
         <v>1.3</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1420,24 +1480,24 @@
       <c r="L6" s="11">
         <v>1.3</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="9" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="68">
         <v>6</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="69">
         <v>1.3</v>
       </c>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1447,9 +1507,9 @@
       <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1459,9 +1519,9 @@
       <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="35"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1476,9 +1536,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1488,9 +1548,9 @@
       <c r="F8" s="15">
         <v>1.5</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1500,9 +1560,9 @@
       <c r="L8" s="15">
         <v>1.5</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="36"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1575,13 @@
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1533,13 +1593,13 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="54" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1551,13 +1611,13 @@
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="54" t="s">
         <v>9</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -1572,9 +1632,9 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1584,9 +1644,9 @@
       <c r="F10" s="11">
         <v>1.5</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1596,9 +1656,9 @@
       <c r="L10" s="11">
         <v>1.5</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="35"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1613,11 +1673,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1629,11 +1689,11 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1645,28 +1705,28 @@
       <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="10">
-        <v>2</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="Q11" s="68">
+        <v>2</v>
+      </c>
+      <c r="R11" s="69">
         <v>1.3</v>
       </c>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1676,9 +1736,9 @@
       <c r="F12" s="11">
         <v>1.3</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="35"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1688,24 +1748,24 @@
       <c r="L12" s="11">
         <v>1.3</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="9" t="s">
+      <c r="M12" s="41"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="10">
-        <v>2</v>
-      </c>
-      <c r="R12" s="11">
+      <c r="Q12" s="68">
+        <v>2</v>
+      </c>
+      <c r="R12" s="69">
         <v>1.3</v>
       </c>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1715,9 +1775,9 @@
       <c r="F13" s="11">
         <v>3.9</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="35"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1727,9 +1787,9 @@
       <c r="L13" s="11">
         <v>3.9</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="35"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="32"/>
       <c r="P13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1744,9 +1804,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="21" t="s">
         <v>14</v>
       </c>
@@ -1756,9 +1816,9 @@
       <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1768,9 +1828,9 @@
       <c r="L14" s="15">
         <v>3</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="36"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1843,7 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1801,7 +1861,7 @@
       <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="44" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="29" t="s">
@@ -1819,7 +1879,7 @@
       <c r="L15" s="8">
         <v>3</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="29" t="s">
@@ -1842,11 +1902,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -1858,11 +1918,11 @@
       <c r="F16" s="11">
         <v>3</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
@@ -1874,14 +1934,14 @@
       <c r="L16" s="11">
         <v>3</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="41" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="66" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10">
@@ -1893,92 +1953,92 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="33">
         <v>7</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="37">
         <v>3.9</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="46" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="33">
         <v>7</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="37">
         <v>3.9</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="46" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="33">
         <v>7</v>
       </c>
-      <c r="R17" s="49">
+      <c r="R17" s="37">
         <v>3.9</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="33"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="64"/>
     </row>
     <row r="19" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="34"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="65"/>
     </row>
     <row r="20" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="28" t="s">
         <v>21</v>
       </c>
@@ -1988,9 +2048,9 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="28" t="s">
         <v>21</v>
       </c>
@@ -2000,10 +2060,10 @@
       <c r="L20" s="15">
         <v>3</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="28" t="s">
+      <c r="M20" s="43"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="75" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="14">
@@ -2015,7 +2075,7 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2033,7 +2093,7 @@
       <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="40" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="17" t="s">
@@ -2051,7 +2111,7 @@
       <c r="L21" s="8">
         <v>3</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="17" t="s">
@@ -2074,11 +2134,11 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -2090,11 +2150,11 @@
       <c r="F22" s="11">
         <v>3</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -2106,14 +2166,14 @@
       <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="41" t="s">
+      <c r="M22" s="41"/>
+      <c r="N22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="35" t="s">
+      <c r="O22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="66" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="10">
@@ -2125,9 +2185,9 @@
       <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="23" t="s">
         <v>17</v>
       </c>
@@ -2137,22 +2197,22 @@
       <c r="F23" s="11">
         <v>3.9</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="46" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="33">
         <v>7</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="37">
         <v>3.9</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="9" t="s">
+      <c r="M23" s="41"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="74" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="10">
@@ -2164,9 +2224,9 @@
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
@@ -2176,32 +2236,32 @@
       <c r="F24" s="11">
         <v>1.3</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="33">
         <v>5</v>
       </c>
-      <c r="R24" s="49">
-        <v>2</v>
-      </c>
-      <c r="S24" s="57" t="s">
+      <c r="R24" s="37">
+        <v>2</v>
+      </c>
+      <c r="S24" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="24" t="s">
         <v>13</v>
       </c>
@@ -2211,24 +2271,24 @@
       <c r="F25" s="25">
         <v>2</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="58"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="61"/>
     </row>
     <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="21" t="s">
         <v>21</v>
       </c>
@@ -2238,9 +2298,9 @@
       <c r="F26" s="15">
         <v>1.5</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="36"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="13" t="s">
         <v>21</v>
       </c>
@@ -2250,10 +2310,10 @@
       <c r="L26" s="15">
         <v>3</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="13" t="s">
+      <c r="M26" s="43"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="75" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="14">
@@ -2262,10 +2322,10 @@
       <c r="R26" s="15">
         <v>1.5</v>
       </c>
-      <c r="S26" s="59"/>
+      <c r="S26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2283,7 +2343,7 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="17" t="s">
@@ -2301,7 +2361,7 @@
       <c r="L27" s="8">
         <v>2</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="17" t="s">
@@ -2324,11 +2384,11 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -2340,11 +2400,11 @@
       <c r="F28" s="11">
         <v>2</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="41" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -2356,14 +2416,14 @@
       <c r="L28" s="11">
         <v>2</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="41" t="s">
+      <c r="M28" s="41"/>
+      <c r="N28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="66" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10">
@@ -2375,9 +2435,9 @@
       <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="20" t="s">
         <v>20</v>
       </c>
@@ -2387,9 +2447,9 @@
       <c r="F29" s="11">
         <v>2.7</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="35"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="9" t="s">
         <v>20</v>
       </c>
@@ -2399,10 +2459,10 @@
       <c r="L29" s="11">
         <v>2.7</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="9" t="s">
+      <c r="M29" s="41"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="70" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="10">
@@ -2416,9 +2476,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="21" t="s">
         <v>21</v>
       </c>
@@ -2428,9 +2488,9 @@
       <c r="F30" s="15">
         <v>2</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="36"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="13" t="s">
         <v>21</v>
       </c>
@@ -2440,10 +2500,10 @@
       <c r="L30" s="15">
         <v>2</v>
       </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="13" t="s">
+      <c r="M30" s="43"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="75" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="14">
@@ -2456,19 +2516,55 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N22:N26"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R24:R25"/>
@@ -2485,55 +2581,19 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="O22:O26"/>
     <mergeCell ref="M27:M30"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N22:N26"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.35433070866141703" bottom="0.35433070866141703" header="0.15748031496063" footer="0"/>

--- a/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
+++ b/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-Responsitory\DotNet\ASP.NET CORE\HRMNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -774,15 +774,78 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,49 +861,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,43 +888,22 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1192,10 +1192,10 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="A7:XFD8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -1221,31 +1221,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="55" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="58" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1304,16 +1304,16 @@
       <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="59"/>
+      <c r="S2" s="66"/>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1325,13 +1325,13 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1343,13 +1343,13 @@
       <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1364,9 +1364,9 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1376,9 +1376,9 @@
       <c r="F4" s="11">
         <v>1.5</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1388,9 +1388,9 @@
       <c r="L4" s="11">
         <v>1.5</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="32"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1405,11 +1405,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1421,11 +1421,11 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1437,28 +1437,28 @@
       <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="68">
-        <v>2</v>
-      </c>
-      <c r="R5" s="69">
+      <c r="Q5" s="34">
+        <v>2</v>
+      </c>
+      <c r="R5" s="35">
         <v>1.3</v>
       </c>
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="20" t="s">
         <v>26</v>
       </c>
@@ -1468,9 +1468,9 @@
       <c r="F6" s="11">
         <v>1.3</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1480,24 +1480,24 @@
       <c r="L6" s="11">
         <v>1.3</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="67" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="34">
         <v>6</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="35">
         <v>1.3</v>
       </c>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1507,9 +1507,9 @@
       <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="32"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1519,9 +1519,9 @@
       <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="32"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1536,9 +1536,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1548,9 +1548,9 @@
       <c r="F8" s="15">
         <v>1.5</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1560,9 +1560,9 @@
       <c r="L8" s="15">
         <v>1.5</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="34"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1575,13 +1575,13 @@
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1593,13 +1593,13 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1611,13 +1611,13 @@
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="49" t="s">
         <v>9</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -1632,9 +1632,9 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1644,9 +1644,9 @@
       <c r="F10" s="11">
         <v>1.5</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1656,9 +1656,9 @@
       <c r="L10" s="11">
         <v>1.5</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="32"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1673,11 +1673,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1689,11 +1689,11 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="51" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1705,28 +1705,28 @@
       <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="51" t="s">
+      <c r="M11" s="45"/>
+      <c r="N11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="67" t="s">
+      <c r="P11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="68">
-        <v>2</v>
-      </c>
-      <c r="R11" s="69">
+      <c r="Q11" s="34">
+        <v>2</v>
+      </c>
+      <c r="R11" s="35">
         <v>1.3</v>
       </c>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1736,9 +1736,9 @@
       <c r="F12" s="11">
         <v>1.3</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1748,24 +1748,24 @@
       <c r="L12" s="11">
         <v>1.3</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="67" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="68">
-        <v>2</v>
-      </c>
-      <c r="R12" s="69">
+      <c r="Q12" s="34">
+        <v>2</v>
+      </c>
+      <c r="R12" s="35">
         <v>1.3</v>
       </c>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1775,9 +1775,9 @@
       <c r="F13" s="11">
         <v>3.9</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="32"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1787,9 +1787,9 @@
       <c r="L13" s="11">
         <v>3.9</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="32"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1804,9 +1804,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="21" t="s">
         <v>14</v>
       </c>
@@ -1816,9 +1816,9 @@
       <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1828,9 +1828,9 @@
       <c r="L14" s="15">
         <v>3</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="34"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="43"/>
       <c r="P14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1861,7 +1861,7 @@
       <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="70" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="29" t="s">
@@ -1879,7 +1879,7 @@
       <c r="L15" s="8">
         <v>3</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="44" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="29" t="s">
@@ -1902,11 +1902,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -1918,11 +1918,11 @@
       <c r="F16" s="11">
         <v>3</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="51" t="s">
+      <c r="G16" s="71"/>
+      <c r="H16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
@@ -1934,14 +1934,14 @@
       <c r="L16" s="11">
         <v>3</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="45"/>
+      <c r="N16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10">
@@ -1953,92 +1953,92 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="55">
         <v>7</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="58">
         <v>3.9</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33" t="s">
+      <c r="G17" s="71"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="55">
         <v>7</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="58">
         <v>3.9</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="71" t="s">
+      <c r="M17" s="45"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="55">
         <v>7</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="58">
         <v>3.9</v>
       </c>
-      <c r="S17" s="63" t="s">
+      <c r="S17" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="64"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="65"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="41"/>
     </row>
     <row r="20" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="28" t="s">
         <v>21</v>
       </c>
@@ -2048,9 +2048,9 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="34"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="28" t="s">
         <v>21</v>
       </c>
@@ -2060,10 +2060,10 @@
       <c r="L20" s="15">
         <v>3</v>
       </c>
-      <c r="M20" s="43"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="75" t="s">
+      <c r="M20" s="46"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="38" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="14">
@@ -2075,7 +2075,7 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2093,7 +2093,7 @@
       <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="44" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="17" t="s">
@@ -2111,7 +2111,7 @@
       <c r="L21" s="8">
         <v>3</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="44" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="17" t="s">
@@ -2134,11 +2134,11 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -2150,11 +2150,11 @@
       <c r="F22" s="11">
         <v>3</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="51" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -2166,14 +2166,14 @@
       <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="51" t="s">
+      <c r="M22" s="45"/>
+      <c r="N22" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="10">
@@ -2185,9 +2185,9 @@
       <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="23" t="s">
         <v>17</v>
       </c>
@@ -2197,22 +2197,22 @@
       <c r="F23" s="11">
         <v>3.9</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="55">
         <v>7</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="58">
         <v>3.9</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="74" t="s">
+      <c r="M23" s="45"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="37" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="10">
@@ -2224,9 +2224,9 @@
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
@@ -2236,32 +2236,32 @@
       <c r="F24" s="11">
         <v>1.3</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="71" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="55">
         <v>5</v>
       </c>
-      <c r="R24" s="37">
-        <v>2</v>
-      </c>
-      <c r="S24" s="60" t="s">
+      <c r="R24" s="58">
+        <v>2</v>
+      </c>
+      <c r="S24" s="67" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="24" t="s">
         <v>13</v>
       </c>
@@ -2271,24 +2271,24 @@
       <c r="F25" s="25">
         <v>2</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="61"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="68"/>
     </row>
     <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="21" t="s">
         <v>21</v>
       </c>
@@ -2298,9 +2298,9 @@
       <c r="F26" s="15">
         <v>1.5</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="34"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="13" t="s">
         <v>21</v>
       </c>
@@ -2310,10 +2310,10 @@
       <c r="L26" s="15">
         <v>3</v>
       </c>
-      <c r="M26" s="43"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="75" t="s">
+      <c r="M26" s="46"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="38" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="14">
@@ -2322,10 +2322,10 @@
       <c r="R26" s="15">
         <v>1.5</v>
       </c>
-      <c r="S26" s="62"/>
+      <c r="S26" s="69"/>
     </row>
     <row r="27" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2343,7 +2343,7 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="44" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="17" t="s">
@@ -2361,7 +2361,7 @@
       <c r="L27" s="8">
         <v>2</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="44" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="17" t="s">
@@ -2384,11 +2384,11 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -2400,11 +2400,11 @@
       <c r="F28" s="11">
         <v>2</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="51" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -2416,14 +2416,14 @@
       <c r="L28" s="11">
         <v>2</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="51" t="s">
+      <c r="M28" s="45"/>
+      <c r="N28" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="66" t="s">
+      <c r="P28" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10">
@@ -2435,9 +2435,9 @@
       <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="20" t="s">
         <v>20</v>
       </c>
@@ -2447,9 +2447,9 @@
       <c r="F29" s="11">
         <v>2.7</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="32"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="9" t="s">
         <v>20</v>
       </c>
@@ -2459,10 +2459,10 @@
       <c r="L29" s="11">
         <v>2.7</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="70" t="s">
+      <c r="M29" s="45"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="10">
@@ -2476,9 +2476,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>21</v>
       </c>
@@ -2488,9 +2488,9 @@
       <c r="F30" s="15">
         <v>2</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="34"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="13" t="s">
         <v>21</v>
       </c>
@@ -2500,10 +2500,10 @@
       <c r="L30" s="15">
         <v>2</v>
       </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="75" t="s">
+      <c r="M30" s="46"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="38" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="14">
@@ -2516,6 +2516,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N22:N26"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
     <mergeCell ref="S17:S19"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="M9:M14"/>
@@ -2532,68 +2594,6 @@
     <mergeCell ref="Q17:Q19"/>
     <mergeCell ref="R17:R19"/>
     <mergeCell ref="N16:N20"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N22:N26"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="O22:O26"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.35433070866141703" bottom="0.35433070866141703" header="0.15748031496063" footer="0"/>

--- a/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
+++ b/ASP.NET CORE/HRMNS/Thay đổi tăng ca ngày lễ (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-Responsitory\DotNet\ASP.NET CORE\HRMNS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -795,73 +795,79 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,22 +894,16 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1192,10 +1192,10 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="A6:XFD8"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -1221,31 +1221,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1304,16 +1304,16 @@
       <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="66"/>
+      <c r="S2" s="68"/>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="63" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1325,13 +1325,13 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="63" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1343,13 +1343,13 @@
       <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="63" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1364,9 +1364,9 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1376,9 +1376,9 @@
       <c r="F4" s="11">
         <v>1.5</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1388,9 +1388,9 @@
       <c r="L4" s="11">
         <v>1.5</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="42"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1405,11 +1405,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1421,11 +1421,11 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1437,11 +1437,11 @@
       <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="48" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="33" t="s">
@@ -1456,9 +1456,9 @@
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="20" t="s">
         <v>26</v>
       </c>
@@ -1468,9 +1468,9 @@
       <c r="F6" s="11">
         <v>1.3</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1480,9 +1480,9 @@
       <c r="L6" s="11">
         <v>1.3</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="42"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="33" t="s">
         <v>26</v>
       </c>
@@ -1495,9 +1495,9 @@
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1507,9 +1507,9 @@
       <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1519,9 +1519,9 @@
       <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="42"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1536,9 +1536,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1548,9 +1548,9 @@
       <c r="F8" s="15">
         <v>1.5</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="43"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1560,9 +1560,9 @@
       <c r="L8" s="15">
         <v>1.5</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="43"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1575,13 +1575,13 @@
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="63" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1593,13 +1593,13 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="63" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1611,13 +1611,13 @@
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="63" t="s">
         <v>9</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -1632,9 +1632,9 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1644,9 +1644,9 @@
       <c r="F10" s="11">
         <v>1.5</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1656,9 +1656,9 @@
       <c r="L10" s="11">
         <v>1.5</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="42"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1673,11 +1673,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1689,11 +1689,11 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1705,11 +1705,11 @@
       <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="48" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P11" s="33" t="s">
@@ -1724,9 +1724,9 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1736,9 +1736,9 @@
       <c r="F12" s="11">
         <v>1.3</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1748,9 +1748,9 @@
       <c r="L12" s="11">
         <v>1.3</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="42"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="39"/>
       <c r="P12" s="33" t="s">
         <v>17</v>
       </c>
@@ -1763,9 +1763,9 @@
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1775,9 +1775,9 @@
       <c r="F13" s="11">
         <v>3.9</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1787,9 +1787,9 @@
       <c r="L13" s="11">
         <v>3.9</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="42"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1804,9 +1804,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="12" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="21" t="s">
         <v>14</v>
       </c>
@@ -1816,9 +1816,9 @@
       <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1828,9 +1828,9 @@
       <c r="L14" s="15">
         <v>3</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="43"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1861,7 +1861,7 @@
       <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="51" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="29" t="s">
@@ -1879,7 +1879,7 @@
       <c r="L15" s="8">
         <v>3</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="47" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="29" t="s">
@@ -1902,11 +1902,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -1918,11 +1918,11 @@
       <c r="F16" s="11">
         <v>3</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="48" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="39" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
@@ -1934,11 +1934,11 @@
       <c r="L16" s="11">
         <v>3</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="48" t="s">
+      <c r="M16" s="48"/>
+      <c r="N16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P16" s="32" t="s">
@@ -1953,92 +1953,92 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="40">
         <v>7</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="44">
         <v>3.9</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="55" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="40">
         <v>7</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="44">
         <v>3.9</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="52" t="s">
+      <c r="M17" s="48"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="40">
         <v>7</v>
       </c>
-      <c r="R17" s="58">
+      <c r="R17" s="44">
         <v>3.9</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="72" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="40"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="73"/>
     </row>
     <row r="19" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="41"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="74"/>
     </row>
     <row r="20" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="28" t="s">
         <v>21</v>
       </c>
@@ -2048,9 +2048,9 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="43"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="28" t="s">
         <v>21</v>
       </c>
@@ -2060,9 +2060,9 @@
       <c r="L20" s="15">
         <v>3</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="43"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="38" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2093,7 +2093,7 @@
       <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="47" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="17" t="s">
@@ -2111,7 +2111,7 @@
       <c r="L21" s="8">
         <v>3</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="47" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="17" t="s">
@@ -2134,11 +2134,11 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -2150,11 +2150,11 @@
       <c r="F22" s="11">
         <v>3</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="48" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="39" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -2166,11 +2166,11 @@
       <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="48" t="s">
+      <c r="M22" s="48"/>
+      <c r="N22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P22" s="32" t="s">
@@ -2185,9 +2185,9 @@
       <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="23" t="s">
         <v>17</v>
       </c>
@@ -2197,21 +2197,21 @@
       <c r="F23" s="11">
         <v>3.9</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="55" t="s">
+      <c r="G23" s="48"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="40">
         <v>7</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="44">
         <v>3.9</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="42"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="37" t="s">
         <v>17</v>
       </c>
@@ -2224,9 +2224,9 @@
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
@@ -2236,32 +2236,32 @@
       <c r="F24" s="11">
         <v>1.3</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="52" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="55">
+      <c r="Q24" s="40">
         <v>5</v>
       </c>
-      <c r="R24" s="58">
-        <v>2</v>
-      </c>
-      <c r="S24" s="67" t="s">
+      <c r="R24" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="S24" s="69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="24" t="s">
         <v>13</v>
       </c>
@@ -2271,24 +2271,24 @@
       <c r="F25" s="25">
         <v>2</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="68"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="70"/>
     </row>
     <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>21</v>
       </c>
@@ -2298,9 +2298,9 @@
       <c r="F26" s="15">
         <v>1.5</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="43"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="13" t="s">
         <v>21</v>
       </c>
@@ -2310,9 +2310,9 @@
       <c r="L26" s="15">
         <v>3</v>
       </c>
-      <c r="M26" s="46"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="43"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="38" t="s">
         <v>21</v>
       </c>
@@ -2320,12 +2320,12 @@
         <v>2</v>
       </c>
       <c r="R26" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="S26" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="71"/>
     </row>
     <row r="27" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2343,7 +2343,7 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="17" t="s">
@@ -2361,7 +2361,7 @@
       <c r="L27" s="8">
         <v>2</v>
       </c>
-      <c r="M27" s="44" t="s">
+      <c r="M27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="17" t="s">
@@ -2384,11 +2384,11 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -2400,11 +2400,11 @@
       <c r="F28" s="11">
         <v>2</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="48" t="s">
+      <c r="G28" s="48"/>
+      <c r="H28" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="39" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -2416,11 +2416,11 @@
       <c r="L28" s="11">
         <v>2</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="48" t="s">
+      <c r="M28" s="48"/>
+      <c r="N28" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P28" s="32" t="s">
@@ -2435,9 +2435,9 @@
       <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="20" t="s">
         <v>20</v>
       </c>
@@ -2447,9 +2447,9 @@
       <c r="F29" s="11">
         <v>2.7</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="42"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="9" t="s">
         <v>20</v>
       </c>
@@ -2459,9 +2459,9 @@
       <c r="L29" s="11">
         <v>2.7</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="42"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="36" t="s">
         <v>20</v>
       </c>
@@ -2476,9 +2476,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="21" t="s">
         <v>21</v>
       </c>
@@ -2488,9 +2488,9 @@
       <c r="F30" s="15">
         <v>2</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="43"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="13" t="s">
         <v>21</v>
       </c>
@@ -2500,9 +2500,9 @@
       <c r="L30" s="15">
         <v>2</v>
       </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="43"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="38" t="s">
         <v>21</v>
       </c>
@@ -2516,19 +2516,55 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N22:N26"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R24:R25"/>
@@ -2545,55 +2581,19 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="O22:O26"/>
     <mergeCell ref="M27:M30"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N22:N26"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.35433070866141703" bottom="0.35433070866141703" header="0.15748031496063" footer="0"/>
